--- a/Syllabus Enrollment & Major req.xlsx
+++ b/Syllabus Enrollment & Major req.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak24289\Documents\Syllabus Review Project 8-8\syllabus-review-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak24289\Documents\Syllabus review project 9-6\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2F256F-BF38-4A98-AE16-7DA7A08311BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F22533-2F3E-46B2-859E-604CC8430594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C4AA3C44-3050-4465-A286-2C8F212A6D7D}"/>
   </bookViews>
@@ -1227,9 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB0AA1F-21C5-4336-A21B-BF45E6778256}">
   <dimension ref="A1:K357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Syllabus Enrollment & Major req.xlsx
+++ b/Syllabus Enrollment & Major req.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak24289\Documents\Syllabus review project 9-6\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F22533-2F3E-46B2-859E-604CC8430594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6EF01-C4FC-4D49-ABD1-AAB2755D7B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C4AA3C44-3050-4465-A286-2C8F212A6D7D}"/>
   </bookViews>
@@ -1228,8 +1228,8 @@
   <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L96" sqref="L96"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2725,9 +2725,15 @@
       <c r="G49" t="s">
         <v>44</v>
       </c>
-      <c r="J49" t="e">
+      <c r="H49">
+        <v>72</v>
+      </c>
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="K49" t="s">
         <v>282</v>
@@ -3802,9 +3808,15 @@
       <c r="G86" t="s">
         <v>79</v>
       </c>
-      <c r="J86" t="e">
+      <c r="H86">
+        <v>16</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.625</v>
       </c>
       <c r="K86" t="s">
         <v>281</v>
@@ -4333,9 +4345,15 @@
       <c r="G104" t="s">
         <v>89</v>
       </c>
-      <c r="J104" t="e">
+      <c r="H104">
+        <v>35</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="K104" t="s">
         <v>281</v>
@@ -4384,9 +4402,15 @@
       <c r="G106" t="s">
         <v>92</v>
       </c>
-      <c r="J106" t="e">
+      <c r="H106">
+        <v>16</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -4903,9 +4927,15 @@
       <c r="G125" t="s">
         <v>45</v>
       </c>
-      <c r="J125" t="e">
+      <c r="H125">
+        <v>48</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -5101,9 +5131,15 @@
       <c r="G132" t="s">
         <v>111</v>
       </c>
-      <c r="J132" t="e">
+      <c r="H132">
+        <v>158</v>
+      </c>
+      <c r="I132">
+        <v>8</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.94936708860759489</v>
       </c>
       <c r="K132" t="s">
         <v>281</v>
@@ -5491,9 +5527,15 @@
       <c r="G145" t="s">
         <v>123</v>
       </c>
-      <c r="J145" t="e">
+      <c r="H145">
+        <v>250</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K145" t="s">
         <v>281</v>
@@ -6478,9 +6520,15 @@
       <c r="G178" t="s">
         <v>142</v>
       </c>
-      <c r="J178" t="e">
+      <c r="H178">
+        <v>16</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6535,9 +6583,15 @@
       <c r="G180" t="s">
         <v>145</v>
       </c>
-      <c r="J180" t="e">
+      <c r="H180">
+        <v>60</v>
+      </c>
+      <c r="I180">
+        <v>15</v>
+      </c>
+      <c r="J180">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6562,9 +6616,15 @@
       <c r="G181" t="s">
         <v>23</v>
       </c>
-      <c r="J181" t="e">
+      <c r="H181">
+        <v>15</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6769,9 +6829,15 @@
       <c r="G188" t="s">
         <v>151</v>
       </c>
-      <c r="J188" t="e">
+      <c r="H188">
+        <v>40</v>
+      </c>
+      <c r="I188">
+        <v>15</v>
+      </c>
+      <c r="J188">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6967,9 +7033,15 @@
       <c r="G195" t="s">
         <v>157</v>
       </c>
-      <c r="J195" t="e">
+      <c r="H195">
+        <v>50</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
         <f t="shared" ref="J195:J258" si="3">(H195-I195)/H195</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -7195,9 +7267,15 @@
       <c r="G203" t="s">
         <v>144</v>
       </c>
-      <c r="J203" t="e">
+      <c r="H203">
+        <v>24</v>
+      </c>
+      <c r="I203">
+        <v>6</v>
+      </c>
+      <c r="J203">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -7897,9 +7975,15 @@
       <c r="G229" t="s">
         <v>187</v>
       </c>
-      <c r="J229" t="e">
+      <c r="H229">
+        <v>140</v>
+      </c>
+      <c r="I229">
+        <v>-1</v>
+      </c>
+      <c r="J229">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0071428571428571</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7921,9 +8005,15 @@
       <c r="G230" t="s">
         <v>188</v>
       </c>
-      <c r="J230" t="e">
+      <c r="H230">
+        <v>19</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -8017,9 +8107,15 @@
       <c r="G234" t="s">
         <v>192</v>
       </c>
-      <c r="J234" t="e">
+      <c r="H234">
+        <v>19</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -8140,9 +8236,15 @@
       <c r="G239" t="s">
         <v>188</v>
       </c>
-      <c r="J239" t="e">
+      <c r="H239">
+        <v>35</v>
+      </c>
+      <c r="I239">
+        <v>-1</v>
+      </c>
+      <c r="J239">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0285714285714285</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -8260,9 +8362,15 @@
       <c r="G244" t="s">
         <v>201</v>
       </c>
-      <c r="J244" t="e">
+      <c r="H244">
+        <v>19</v>
+      </c>
+      <c r="I244">
+        <v>-2</v>
+      </c>
+      <c r="J244">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -8284,9 +8392,15 @@
       <c r="G245" t="s">
         <v>202</v>
       </c>
-      <c r="J245" t="e">
+      <c r="H245">
+        <v>30</v>
+      </c>
+      <c r="I245">
+        <v>-2</v>
+      </c>
+      <c r="J245">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -8308,9 +8422,15 @@
       <c r="G246" t="s">
         <v>203</v>
       </c>
-      <c r="J246" t="e">
+      <c r="H246">
+        <v>25</v>
+      </c>
+      <c r="I246">
+        <v>-1</v>
+      </c>
+      <c r="J246">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -8383,9 +8503,15 @@
       <c r="G249" t="s">
         <v>205</v>
       </c>
-      <c r="J249" t="e">
+      <c r="H249">
+        <v>40</v>
+      </c>
+      <c r="I249">
+        <v>6</v>
+      </c>
+      <c r="J249">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -8584,9 +8710,15 @@
       <c r="G256" t="s">
         <v>209</v>
       </c>
-      <c r="J256" t="e">
+      <c r="H256">
+        <v>10</v>
+      </c>
+      <c r="I256">
+        <v>10</v>
+      </c>
+      <c r="J256">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -8635,9 +8767,15 @@
       <c r="G258" t="s">
         <v>211</v>
       </c>
-      <c r="J258" t="e">
+      <c r="H258">
+        <v>80</v>
+      </c>
+      <c r="I258">
+        <v>70</v>
+      </c>
+      <c r="J258">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -8917,9 +9055,15 @@
       <c r="G268" t="s">
         <v>220</v>
       </c>
-      <c r="J268" t="e">
+      <c r="H268">
+        <v>25</v>
+      </c>
+      <c r="I268">
+        <v>7</v>
+      </c>
+      <c r="J268">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -8995,9 +9139,15 @@
       <c r="G271" t="s">
         <v>121</v>
       </c>
-      <c r="J271" t="e">
+      <c r="H271">
+        <v>45</v>
+      </c>
+      <c r="I271">
+        <v>17</v>
+      </c>
+      <c r="J271">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -9235,9 +9385,15 @@
       <c r="G280" t="s">
         <v>218</v>
       </c>
-      <c r="J280" t="e">
+      <c r="H280">
+        <v>25</v>
+      </c>
+      <c r="I280">
+        <v>24</v>
+      </c>
+      <c r="J280">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -9994,9 +10150,15 @@
       <c r="G308" t="s">
         <v>246</v>
       </c>
-      <c r="J308" t="e">
+      <c r="H308">
+        <v>20</v>
+      </c>
+      <c r="I308">
+        <v>7</v>
+      </c>
+      <c r="J308">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -10192,9 +10354,15 @@
       <c r="G315" t="s">
         <v>249</v>
       </c>
-      <c r="J315" t="e">
+      <c r="H315">
+        <v>18</v>
+      </c>
+      <c r="I315">
+        <v>6</v>
+      </c>
+      <c r="J315">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,9 +10918,15 @@
       <c r="G336" t="s">
         <v>264</v>
       </c>
-      <c r="J336" t="e">
+      <c r="H336">
+        <v>11</v>
+      </c>
+      <c r="I336">
+        <v>7</v>
+      </c>
+      <c r="J336">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -10852,9 +11026,15 @@
       <c r="G340" t="s">
         <v>266</v>
       </c>
-      <c r="J340" t="e">
+      <c r="H340">
+        <v>7</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -10879,9 +11059,15 @@
       <c r="G341" t="s">
         <v>264</v>
       </c>
-      <c r="J341" t="e">
+      <c r="H341">
+        <v>10</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -11230,9 +11416,15 @@
       <c r="G354" t="s">
         <v>273</v>
       </c>
-      <c r="J354" t="e">
+      <c r="H354">
+        <v>40</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">

--- a/Syllabus Enrollment & Major req.xlsx
+++ b/Syllabus Enrollment & Major req.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak24289\Documents\Syllabus review project 9-6\syllabus-review-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Syllabus Review Project 7-14\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6EF01-C4FC-4D49-ABD1-AAB2755D7B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DF1F4-1E20-4A7D-BE08-48C079FFB602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C4AA3C44-3050-4465-A286-2C8F212A6D7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4AA3C44-3050-4465-A286-2C8F212A6D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1228,13 +1239,13 @@
   <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1473,7 +1484,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1587,7 +1598,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1606,15 +1617,21 @@
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" t="e">
+      <c r="H13">
+        <v>215</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.94883720930232562</v>
       </c>
       <c r="K13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1668,7 +1685,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1704,7 +1721,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1734,7 +1751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1767,7 +1784,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1800,7 +1817,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1827,7 +1844,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1860,7 +1877,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1893,7 +1910,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1926,7 +1943,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1962,7 +1979,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1992,7 +2009,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2022,7 +2039,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2088,7 +2105,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2121,7 +2138,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2167,15 +2184,21 @@
       <c r="G31" t="s">
         <v>34</v>
       </c>
-      <c r="J31" t="e">
+      <c r="H31">
+        <v>115</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.94782608695652171</v>
       </c>
       <c r="K31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2211,7 +2234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2244,7 +2267,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2290,15 +2313,21 @@
       <c r="G35" t="s">
         <v>36</v>
       </c>
-      <c r="J35" t="e">
+      <c r="H35">
+        <v>220</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2328,7 +2357,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2358,7 +2387,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2388,7 +2417,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2421,7 +2450,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2451,7 +2480,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2481,7 +2510,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2511,7 +2540,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2541,7 +2570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2577,7 +2606,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2607,7 +2636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2643,7 +2672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2673,7 +2702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2695,15 +2724,21 @@
       <c r="G48" t="s">
         <v>44</v>
       </c>
-      <c r="J48" t="e">
+      <c r="H48">
+        <v>72</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="K48" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2739,7 +2774,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2797,15 +2832,21 @@
       <c r="G51" t="s">
         <v>45</v>
       </c>
-      <c r="J51" t="e">
+      <c r="H51">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="K51" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2835,7 +2876,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2871,7 +2912,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2907,7 +2948,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2931,7 +2972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2955,7 +2996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2974,12 +3015,18 @@
       <c r="G57" t="s">
         <v>51</v>
       </c>
-      <c r="J57" t="e">
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3003,7 +3050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3022,12 +3069,18 @@
       <c r="G59" t="s">
         <v>52</v>
       </c>
-      <c r="J59" t="e">
+      <c r="H59">
+        <v>112</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.8392857142857143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3054,7 +3107,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3073,15 +3126,21 @@
       <c r="G61" t="s">
         <v>23</v>
       </c>
-      <c r="J61" t="e">
+      <c r="H61">
+        <v>180</v>
+      </c>
+      <c r="I61">
+        <v>75</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="K61" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3108,7 +3167,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3135,7 +3194,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3168,7 +3227,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3201,7 +3260,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3228,7 +3287,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3255,7 +3314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3282,7 +3341,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3312,7 +3371,7 @@
         <v>0.79090909090909089</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3331,12 +3390,18 @@
       <c r="G70" t="s">
         <v>62</v>
       </c>
-      <c r="J70" t="e">
+      <c r="H70">
+        <v>87</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3366,7 +3431,7 @@
         <v>0.99753694581280783</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3393,7 +3458,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3426,7 +3491,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3456,7 +3521,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3489,7 +3554,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3519,7 +3584,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3549,7 +3614,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3579,7 +3644,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3609,7 +3674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3642,7 +3707,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3675,7 +3740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3705,7 +3770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3732,7 +3797,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3751,15 +3816,21 @@
       <c r="G84" t="s">
         <v>76</v>
       </c>
-      <c r="J84" t="e">
+      <c r="H84">
+        <v>23</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3786,7 +3857,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3822,7 +3893,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3849,7 +3920,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3871,15 +3942,21 @@
       <c r="G88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="e">
+      <c r="H88">
+        <v>48</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3912,7 +3989,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3939,7 +4016,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3966,7 +4043,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3993,7 +4070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4026,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4059,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4086,7 +4163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4119,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4138,15 +4215,21 @@
       <c r="G97" t="s">
         <v>9</v>
       </c>
-      <c r="J97" t="e">
+      <c r="H97">
+        <v>135</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0074074074074073</v>
       </c>
       <c r="K97" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4179,7 +4262,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4206,7 +4289,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4233,7 +4316,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4266,7 +4349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4293,7 +4376,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4326,7 +4409,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4359,7 +4442,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4383,7 +4466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4413,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4437,7 +4520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4461,7 +4544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4491,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4515,7 +4598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4539,7 +4622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4566,7 +4649,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4585,15 +4668,21 @@
       <c r="G113" t="s">
         <v>100</v>
       </c>
-      <c r="J113" t="e">
+      <c r="H113">
+        <v>82</v>
+      </c>
+      <c r="I113">
+        <v>16</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="K113" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4612,15 +4701,21 @@
       <c r="G114" t="s">
         <v>101</v>
       </c>
-      <c r="J114" t="e">
+      <c r="H114">
+        <v>160</v>
+      </c>
+      <c r="I114">
+        <v>40</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="K114" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4639,15 +4734,21 @@
       <c r="G115" t="s">
         <v>46</v>
       </c>
-      <c r="J115" t="e">
+      <c r="H115">
+        <v>35</v>
+      </c>
+      <c r="I115">
+        <v>-13</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.3714285714285714</v>
       </c>
       <c r="K115" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4680,7 +4781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4707,7 +4808,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4734,7 +4835,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4767,7 +4868,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4800,7 +4901,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4822,12 +4923,18 @@
       <c r="G121" t="s">
         <v>97</v>
       </c>
-      <c r="J121" t="e">
+      <c r="H121">
+        <v>20</v>
+      </c>
+      <c r="I121">
+        <v>11</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4849,12 +4956,18 @@
       <c r="G122" t="s">
         <v>100</v>
       </c>
-      <c r="J122" t="e">
+      <c r="H122">
+        <v>20</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4878,7 +4991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4908,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4938,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4968,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4998,7 +5111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5025,7 +5138,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5052,7 +5165,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5085,7 +5198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5112,7 +5225,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5145,7 +5258,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5178,7 +5291,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5211,7 +5324,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5230,15 +5343,21 @@
       <c r="G135" t="s">
         <v>114</v>
       </c>
-      <c r="J135" t="e">
+      <c r="H135">
+        <v>170</v>
+      </c>
+      <c r="I135">
+        <v>15</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="K135" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5271,7 +5390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5298,7 +5417,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5331,7 +5450,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5350,15 +5469,21 @@
       <c r="G139" t="s">
         <v>118</v>
       </c>
-      <c r="J139" t="e">
+      <c r="H139">
+        <v>200</v>
+      </c>
+      <c r="I139">
+        <v>20</v>
+      </c>
+      <c r="J139">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.9</v>
       </c>
       <c r="K139" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5380,15 +5505,21 @@
       <c r="G140" t="s">
         <v>119</v>
       </c>
-      <c r="J140" t="e">
+      <c r="H140">
+        <v>175</v>
+      </c>
+      <c r="I140">
+        <v>23</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="K140" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5415,7 +5546,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5448,7 +5579,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5467,15 +5598,21 @@
       <c r="G143" t="s">
         <v>122</v>
       </c>
-      <c r="J143" t="e">
+      <c r="H143">
+        <v>250</v>
+      </c>
+      <c r="I143">
+        <v>38</v>
+      </c>
+      <c r="J143">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="K143" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5508,7 +5645,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5541,7 +5678,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5568,7 +5705,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5595,7 +5732,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5628,7 +5765,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5664,7 +5801,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5691,7 +5828,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5721,7 +5858,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5757,7 +5894,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5793,7 +5930,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5815,12 +5952,18 @@
       <c r="G154" t="s">
         <v>76</v>
       </c>
-      <c r="J154" t="e">
+      <c r="H154">
+        <v>23</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5847,7 +5990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5874,7 +6017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5901,7 +6044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5928,7 +6071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5961,7 +6104,7 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5994,7 +6137,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6021,7 +6164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6045,7 +6188,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6075,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6105,7 +6248,7 @@
         <v>1.0441176470588236</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6135,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6165,7 +6308,7 @@
         <v>0.952755905511811</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6195,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6219,7 +6362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6249,7 +6392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6279,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6309,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6339,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6372,7 +6515,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6402,7 +6545,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6432,7 +6575,7 @@
         <v>0.87692307692307692</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6465,7 +6608,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6498,7 +6641,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6531,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6564,7 +6707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6594,7 +6737,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6627,7 +6770,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6660,7 +6803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6690,7 +6833,7 @@
         <v>0.99230769230769234</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6720,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6753,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6777,7 +6920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6810,7 +6953,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6840,7 +6983,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6870,7 +7013,7 @@
         <v>0.97674418604651159</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6900,7 +7043,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6930,7 +7073,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6960,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6984,7 +7127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7014,7 +7157,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7044,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7068,7 +7211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7095,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7125,7 +7268,7 @@
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7155,7 +7298,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7188,7 +7331,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7218,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7245,7 +7388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7278,7 +7421,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7308,7 +7451,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7332,7 +7475,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7362,7 +7505,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7392,7 +7535,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7416,7 +7559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7446,7 +7589,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7470,7 +7613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7500,7 +7643,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7524,7 +7667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7554,7 +7697,7 @@
         <v>0.51111111111111107</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7584,7 +7727,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7608,7 +7751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7632,7 +7775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7656,7 +7799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7675,12 +7818,18 @@
       <c r="G218" t="s">
         <v>177</v>
       </c>
-      <c r="J218" t="e">
+      <c r="H218">
+        <v>80</v>
+      </c>
+      <c r="I218">
+        <v>52</v>
+      </c>
+      <c r="J218">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7710,7 +7859,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7734,7 +7883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7764,7 +7913,7 @@
         <v>0.67142857142857137</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7794,7 +7943,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7824,7 +7973,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7854,7 +8003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7878,7 +8027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7908,7 +8057,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7927,12 +8076,18 @@
       <c r="G227" t="s">
         <v>185</v>
       </c>
-      <c r="J227" t="e">
+      <c r="H227">
+        <v>40</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7951,12 +8106,18 @@
       <c r="G228" t="s">
         <v>186</v>
       </c>
-      <c r="J228" t="e">
+      <c r="H228">
+        <v>35</v>
+      </c>
+      <c r="I228">
+        <v>4</v>
+      </c>
+      <c r="J228">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7986,7 +8147,7 @@
         <v>1.0071428571428571</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8016,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8040,7 +8201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8064,7 +8225,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8088,7 +8249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8118,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8145,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8169,7 +8330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8193,7 +8354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8212,12 +8373,18 @@
       <c r="G238" t="s">
         <v>197</v>
       </c>
-      <c r="J238" t="e">
+      <c r="H238">
+        <v>60</v>
+      </c>
+      <c r="I238">
+        <v>16</v>
+      </c>
+      <c r="J238">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8247,7 +8414,7 @@
         <v>1.0285714285714285</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8271,7 +8438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8295,7 +8462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8319,7 +8486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8343,7 +8510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8373,7 +8540,7 @@
         <v>1.1052631578947369</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8403,7 +8570,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8433,7 +8600,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8452,12 +8619,18 @@
       <c r="G247" t="s">
         <v>204</v>
       </c>
-      <c r="J247" t="e">
+      <c r="H247">
+        <v>30</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8481,7 +8654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8514,7 +8687,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8541,7 +8714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8574,7 +8747,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8607,7 +8780,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8637,7 +8810,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8667,7 +8840,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8691,7 +8864,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -8721,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8748,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8778,7 +8951,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8808,7 +8981,7 @@
         <v>0.97826086956521741</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8832,7 +9005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8862,7 +9035,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8892,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8925,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8949,7 +9122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8976,7 +9149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9009,7 +9182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9033,7 +9206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9066,7 +9239,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9093,7 +9266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9120,7 +9293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9150,7 +9323,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9174,7 +9347,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9198,7 +9371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9220,12 +9393,18 @@
       <c r="G274" t="s">
         <v>121</v>
       </c>
-      <c r="J274" t="e">
+      <c r="H274">
+        <v>100</v>
+      </c>
+      <c r="I274">
+        <v>55</v>
+      </c>
+      <c r="J274">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9252,7 +9431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9285,7 +9464,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9312,7 +9491,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9342,7 +9521,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9366,7 +9545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9396,7 +9575,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9420,7 +9599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9450,7 +9629,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9469,12 +9648,18 @@
       <c r="G283" t="s">
         <v>141</v>
       </c>
-      <c r="J283" t="e">
+      <c r="H283">
+        <v>35</v>
+      </c>
+      <c r="I283">
+        <v>35</v>
+      </c>
+      <c r="J283">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9504,7 +9689,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9528,7 +9713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9561,7 +9746,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9594,7 +9779,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9627,7 +9812,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9657,7 +9842,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9687,7 +9872,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9711,7 +9896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9730,12 +9915,18 @@
       <c r="G292" t="s">
         <v>235</v>
       </c>
-      <c r="J292" t="e">
+      <c r="H292">
+        <v>15</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+      <c r="J292">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9759,7 +9950,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9789,7 +9980,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9813,7 +10004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9837,7 +10028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9856,12 +10047,18 @@
       <c r="G297" t="s">
         <v>239</v>
       </c>
-      <c r="J297" t="e">
+      <c r="H297">
+        <v>80</v>
+      </c>
+      <c r="I297">
+        <v>35</v>
+      </c>
+      <c r="J297">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9891,7 +10088,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9915,7 +10112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9934,12 +10131,18 @@
       <c r="G300" t="s">
         <v>228</v>
       </c>
-      <c r="J300" t="e">
+      <c r="H300">
+        <v>30</v>
+      </c>
+      <c r="I300">
+        <v>23</v>
+      </c>
+      <c r="J300">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9969,7 +10172,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9988,12 +10191,18 @@
       <c r="G302" t="s">
         <v>89</v>
       </c>
-      <c r="J302" t="e">
+      <c r="H302">
+        <v>24</v>
+      </c>
+      <c r="I302">
+        <v>4</v>
+      </c>
+      <c r="J302">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10023,7 +10232,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10042,12 +10251,18 @@
       <c r="G304" t="s">
         <v>243</v>
       </c>
-      <c r="J304" t="e">
+      <c r="H304">
+        <v>25</v>
+      </c>
+      <c r="I304">
+        <v>7</v>
+      </c>
+      <c r="J304">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10077,7 +10292,7 @@
         <v>0.20535714285714285</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10107,7 +10322,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10126,12 +10341,18 @@
       <c r="G307" t="s">
         <v>245</v>
       </c>
-      <c r="J307" t="e">
+      <c r="H307">
+        <v>15</v>
+      </c>
+      <c r="I307">
+        <v>15</v>
+      </c>
+      <c r="J307">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10161,7 +10382,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10185,7 +10406,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10215,7 +10436,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10248,7 +10469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10278,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10300,12 +10521,18 @@
       <c r="G313" t="s">
         <v>249</v>
       </c>
-      <c r="J313" t="e">
+      <c r="H313">
+        <v>18</v>
+      </c>
+      <c r="I313">
+        <v>5</v>
+      </c>
+      <c r="J313">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10327,12 +10554,18 @@
       <c r="G314" t="s">
         <v>249</v>
       </c>
-      <c r="J314" t="e">
+      <c r="H314">
+        <v>23</v>
+      </c>
+      <c r="I314">
+        <v>11</v>
+      </c>
+      <c r="J314">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10365,7 +10598,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10392,7 +10625,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10422,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10441,12 +10674,18 @@
       <c r="G318" t="s">
         <v>251</v>
       </c>
-      <c r="J318" t="e">
+      <c r="H318">
+        <v>80</v>
+      </c>
+      <c r="I318">
+        <v>70</v>
+      </c>
+      <c r="J318">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10476,7 +10715,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10495,12 +10734,18 @@
       <c r="G320" t="s">
         <v>252</v>
       </c>
-      <c r="J320" t="e">
+      <c r="H320">
+        <v>23</v>
+      </c>
+      <c r="I320">
+        <v>2</v>
+      </c>
+      <c r="J320">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10530,7 +10775,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10554,7 +10799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10578,7 +10823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10597,12 +10842,18 @@
       <c r="G324" t="s">
         <v>256</v>
       </c>
-      <c r="J324" t="e">
+      <c r="H324">
+        <v>35</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10632,7 +10883,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10665,7 +10916,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10692,7 +10943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10711,12 +10962,18 @@
       <c r="G328" t="s">
         <v>48</v>
       </c>
-      <c r="J328" t="e">
+      <c r="H328">
+        <v>75</v>
+      </c>
+      <c r="I328">
+        <v>22</v>
+      </c>
+      <c r="J328">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.70666666666666667</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10740,7 +10997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10764,7 +11021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10783,12 +11040,18 @@
       <c r="G331" t="s">
         <v>260</v>
       </c>
-      <c r="J331" t="e">
+      <c r="H331">
+        <v>20</v>
+      </c>
+      <c r="I331">
+        <v>10</v>
+      </c>
+      <c r="J331">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10818,7 +11081,7 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10848,7 +11111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10872,7 +11135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10896,7 +11159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -10929,7 +11192,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -10948,12 +11211,18 @@
       <c r="G337" t="s">
         <v>265</v>
       </c>
-      <c r="J337" t="e">
+      <c r="H337">
+        <v>20</v>
+      </c>
+      <c r="I337">
+        <v>20</v>
+      </c>
+      <c r="J337">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -10975,12 +11244,18 @@
       <c r="G338" t="s">
         <v>265</v>
       </c>
-      <c r="J338" t="e">
+      <c r="H338">
+        <v>12</v>
+      </c>
+      <c r="I338">
+        <v>11</v>
+      </c>
+      <c r="J338">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -10999,12 +11274,18 @@
       <c r="G339" t="s">
         <v>256</v>
       </c>
-      <c r="J339" t="e">
+      <c r="H339">
+        <v>40</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11037,7 +11318,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11070,7 +11351,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11094,7 +11375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11118,7 +11399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11148,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11178,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11197,12 +11478,18 @@
       <c r="G346" t="s">
         <v>268</v>
       </c>
-      <c r="J346" t="e">
+      <c r="H346">
+        <v>60</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11235,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11268,7 +11555,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11301,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11325,7 +11612,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11349,7 +11636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11373,7 +11660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11397,7 +11684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11427,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11451,7 +11738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11470,12 +11757,18 @@
       <c r="G356" t="s">
         <v>275</v>
       </c>
-      <c r="J356" t="e">
+      <c r="H356">
+        <v>18</v>
+      </c>
+      <c r="I356">
+        <v>3</v>
+      </c>
+      <c r="J356">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11501,5 +11794,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Syllabus Enrollment & Major req.xlsx
+++ b/Syllabus Enrollment & Major req.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Syllabus Review Project 7-14\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DF1F4-1E20-4A7D-BE08-48C079FFB602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D97340-267C-4EE5-A8E1-427810A2F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4AA3C44-3050-4465-A286-2C8F212A6D7D}"/>
   </bookViews>
